--- a/REGULAR/OJT/MALIGAYO, YOLANDA.xlsx
+++ b/REGULAR/OJT/MALIGAYO, YOLANDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D198263-8944-4590-B2CA-A903E53EEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="327">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1020,7 +1019,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1698,7 +1697,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1715,25 +1714,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K506" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K508" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2040,34 +2039,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K506"/>
+  <dimension ref="A2:K508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A455" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A455" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B463" sqref="B463"/>
+      <selection pane="bottomLeft" activeCell="I465" sqref="I465"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2088,7 +2087,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2108,7 +2107,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2130,7 +2129,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2138,7 +2137,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2151,7 +2150,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2168,7 +2167,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2212,7 +2211,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.432000000000016</v>
+        <v>101.18200000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2222,12 +2221,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>108.5</v>
+        <v>110.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>96</v>
       </c>
@@ -2249,7 +2248,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36342</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -2299,7 +2298,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36404</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>116</v>
@@ -2345,7 +2344,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>36434</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>117</v>
@@ -2391,7 +2390,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36465</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>118</v>
@@ -2434,7 +2433,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>36495</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>119</v>
@@ -2480,7 +2479,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>114</v>
       </c>
@@ -2502,7 +2501,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>36526</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>124</v>
@@ -2548,7 +2547,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36557</v>
       </c>
@@ -2572,7 +2571,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>36586</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>126</v>
@@ -2618,7 +2617,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36617</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>126</v>
@@ -2664,7 +2663,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36647</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>130</v>
@@ -2710,7 +2709,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36678</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>45</v>
@@ -2758,7 +2757,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>131</v>
@@ -2778,7 +2777,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>36708</v>
       </c>
@@ -2802,7 +2801,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>36739</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>36838</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>45</v>
@@ -2850,7 +2849,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>133</v>
@@ -2870,7 +2869,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36770</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>36800</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36831</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>36717</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>135</v>
@@ -2966,7 +2965,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>36861</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>136</v>
@@ -3012,7 +3011,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>113</v>
       </c>
@@ -3034,7 +3033,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36892</v>
       </c>
@@ -3058,7 +3057,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36923</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>36951</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>144</v>
@@ -3130,7 +3129,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36982</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>48</v>
@@ -3178,7 +3177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>37012</v>
       </c>
@@ -3202,7 +3201,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>37043</v>
       </c>
@@ -3226,7 +3225,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>37073</v>
       </c>
@@ -3250,7 +3249,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37104</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>147</v>
@@ -3296,7 +3295,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>37135</v>
       </c>
@@ -3320,7 +3319,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>37165</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>37196</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>37023</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>149</v>
@@ -3392,7 +3391,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>37226</v>
       </c>
@@ -3416,7 +3415,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>112</v>
       </c>
@@ -3438,7 +3437,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37257</v>
       </c>
@@ -3462,7 +3461,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>37288</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>149</v>
@@ -3508,7 +3507,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>37316</v>
       </c>
@@ -3532,7 +3531,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>37347</v>
       </c>
@@ -3556,7 +3555,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37377</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>46</v>
@@ -3604,7 +3603,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>158</v>
@@ -3624,7 +3623,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37408</v>
       </c>
@@ -3648,7 +3647,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>37438</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37469</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>37500</v>
       </c>
@@ -3720,7 +3719,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>37530</v>
       </c>
@@ -3740,7 +3739,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>37561</v>
       </c>
@@ -3760,7 +3759,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>37591</v>
       </c>
@@ -3784,7 +3783,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>111</v>
       </c>
@@ -3806,7 +3805,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37622</v>
       </c>
@@ -3826,7 +3825,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>37653</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>166</v>
@@ -3867,7 +3866,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>37681</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>37712</v>
       </c>
@@ -3915,7 +3914,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>37742</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>168</v>
@@ -3961,7 +3960,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>37773</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>174</v>
@@ -4007,7 +4006,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37803</v>
       </c>
@@ -4031,7 +4030,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>37834</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>149</v>
@@ -4077,7 +4076,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37865</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>45</v>
@@ -4125,7 +4124,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>37895</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4173,7 +4172,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>148</v>
@@ -4193,7 +4192,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>37926</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -4241,7 +4240,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>37956</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>55</v>
@@ -4289,7 +4288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>45</v>
@@ -4311,7 +4310,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>165</v>
@@ -4331,7 +4330,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>110</v>
       </c>
@@ -4353,7 +4352,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37987</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>116</v>
@@ -4399,7 +4398,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>38018</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>38140</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>45</v>
@@ -4447,7 +4446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>116</v>
@@ -4467,7 +4466,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38047</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>183</v>
@@ -4511,7 +4510,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38078</v>
       </c>
@@ -4535,7 +4534,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>38108</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>185</v>
@@ -4581,7 +4580,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>38139</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>186</v>
@@ -4627,7 +4626,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38169</v>
       </c>
@@ -4651,7 +4650,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>38200</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>38146</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>192</v>
@@ -4697,7 +4696,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>38231</v>
       </c>
@@ -4721,7 +4720,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>38261</v>
       </c>
@@ -4745,7 +4744,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>38292</v>
       </c>
@@ -4769,7 +4768,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>38322</v>
       </c>
@@ -4793,7 +4792,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>196</v>
@@ -4813,7 +4812,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>109</v>
       </c>
@@ -4835,7 +4834,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>38353</v>
       </c>
@@ -4859,7 +4858,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>38384</v>
       </c>
@@ -4883,7 +4882,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>38412</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -4931,7 +4930,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>63</v>
@@ -4951,7 +4950,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>196</v>
@@ -4971,7 +4970,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>38443</v>
       </c>
@@ -4995,7 +4994,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>38473</v>
       </c>
@@ -5019,7 +5018,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>38504</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>38631</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>200</v>
@@ -5065,7 +5064,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="49"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>38534</v>
       </c>
@@ -5089,7 +5088,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>38565</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>149</v>
@@ -5135,7 +5134,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>38596</v>
       </c>
@@ -5155,7 +5154,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>38626</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>38452</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>149</v>
@@ -5201,7 +5200,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>38657</v>
       </c>
@@ -5225,7 +5224,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>38687</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>157</v>
@@ -5266,7 +5265,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>107</v>
       </c>
@@ -5288,7 +5287,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38718</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>206</v>
@@ -5332,7 +5331,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38749</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>177</v>
@@ -5378,7 +5377,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>38777</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -5426,7 +5425,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>63</v>
@@ -5446,7 +5445,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>208</v>
@@ -5466,7 +5465,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>38808</v>
       </c>
@@ -5490,7 +5489,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>63</v>
@@ -5510,7 +5509,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>38838</v>
       </c>
@@ -5534,7 +5533,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>38869</v>
       </c>
@@ -5558,7 +5557,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>38899</v>
       </c>
@@ -5582,7 +5581,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>38930</v>
       </c>
@@ -5606,7 +5605,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>38961</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38991</v>
       </c>
@@ -5654,7 +5653,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>39022</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>39052</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>219</v>
@@ -5726,7 +5725,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
         <v>108</v>
       </c>
@@ -5748,7 +5747,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>39083</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>222</v>
@@ -5792,7 +5791,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>39114</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>39418</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>58</v>
@@ -5840,7 +5839,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>149</v>
@@ -5860,7 +5859,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>39142</v>
       </c>
@@ -5884,7 +5883,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>39173</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>63</v>
@@ -5930,7 +5929,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>46</v>
@@ -5952,7 +5951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>39203</v>
       </c>
@@ -5976,7 +5975,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>39234</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>39239</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>167</v>
@@ -6022,7 +6021,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>39264</v>
       </c>
@@ -6048,7 +6047,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>228</v>
@@ -6065,7 +6064,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>39295</v>
       </c>
@@ -6089,7 +6088,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>39326</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>45</v>
@@ -6137,7 +6136,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>186</v>
@@ -6157,7 +6156,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>39356</v>
       </c>
@@ -6181,7 +6180,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>226</v>
@@ -6201,7 +6200,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>39387</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>197</v>
@@ -6247,7 +6246,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39417</v>
       </c>
@@ -6271,7 +6270,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
         <v>106</v>
       </c>
@@ -6293,7 +6292,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>39448</v>
       </c>
@@ -6317,7 +6316,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>39479</v>
       </c>
@@ -6341,7 +6340,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39508</v>
       </c>
@@ -6365,7 +6364,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>39539</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>235</v>
@@ -6409,7 +6408,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>39569</v>
       </c>
@@ -6433,7 +6432,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>39600</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>63</v>
@@ -6479,7 +6478,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>237</v>
@@ -6499,7 +6498,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>39630</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>39759</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>236</v>
@@ -6545,7 +6544,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>39661</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>45</v>
@@ -6593,7 +6592,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>238</v>
@@ -6613,7 +6612,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>39692</v>
       </c>
@@ -6637,7 +6636,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>244</v>
@@ -6657,7 +6656,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>39722</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>240</v>
@@ -6705,7 +6704,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>236</v>
@@ -6725,7 +6724,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>39753</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>251</v>
@@ -6771,7 +6770,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="49"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>39783</v>
       </c>
@@ -6795,7 +6794,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>105</v>
       </c>
@@ -6817,7 +6816,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>39814</v>
       </c>
@@ -6841,7 +6840,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>39845</v>
       </c>
@@ -6865,7 +6864,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>39873</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>214</v>
@@ -6909,7 +6908,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>39904</v>
       </c>
@@ -6933,7 +6932,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>39934</v>
       </c>
@@ -6957,7 +6956,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>39965</v>
       </c>
@@ -6981,7 +6980,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>39995</v>
       </c>
@@ -7005,7 +7004,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>40026</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>257</v>
@@ -7051,7 +7050,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>40057</v>
       </c>
@@ -7075,7 +7074,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>40087</v>
       </c>
@@ -7099,7 +7098,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>40118</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>260</v>
@@ -7145,7 +7144,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>40148</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>217</v>
@@ -7193,7 +7192,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>261</v>
@@ -7213,7 +7212,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="48" t="s">
         <v>104</v>
       </c>
@@ -7235,7 +7234,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>40179</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>268</v>
@@ -7281,7 +7280,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>40210</v>
       </c>
@@ -7305,7 +7304,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>40238</v>
       </c>
@@ -7329,7 +7328,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>40269</v>
       </c>
@@ -7349,7 +7348,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>40299</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>40330</v>
       </c>
@@ -7395,7 +7394,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>40360</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>270</v>
@@ -7443,7 +7442,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>40391</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>40422</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>40452</v>
       </c>
@@ -7515,7 +7514,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>40483</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>40513</v>
       </c>
@@ -7561,7 +7560,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="48" t="s">
         <v>103</v>
       </c>
@@ -7583,7 +7582,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>40544</v>
       </c>
@@ -7603,7 +7602,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>40575</v>
       </c>
@@ -7623,7 +7622,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>40603</v>
       </c>
@@ -7647,7 +7646,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>40634</v>
       </c>
@@ -7667,7 +7666,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>40664</v>
       </c>
@@ -7687,7 +7686,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>40695</v>
       </c>
@@ -7711,7 +7710,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>40725</v>
       </c>
@@ -7731,7 +7730,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>40756</v>
       </c>
@@ -7751,7 +7750,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>40787</v>
       </c>
@@ -7771,7 +7770,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>40817</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>40848</v>
       </c>
@@ -7817,7 +7816,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>40878</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>78</v>
@@ -7860,7 +7859,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>102</v>
       </c>
@@ -7882,7 +7881,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>40909</v>
       </c>
@@ -7902,7 +7901,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>40940</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>40969</v>
       </c>
@@ -7948,7 +7947,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>41000</v>
       </c>
@@ -7968,7 +7967,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>41030</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>41061</v>
       </c>
@@ -8014,7 +8013,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>41091</v>
       </c>
@@ -8034,7 +8033,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>41122</v>
       </c>
@@ -8054,7 +8053,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>41153</v>
       </c>
@@ -8074,7 +8073,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>41183</v>
       </c>
@@ -8094,7 +8093,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>41214</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>78</v>
@@ -8139,7 +8138,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>41244</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="48" t="s">
         <v>101</v>
       </c>
@@ -8187,7 +8186,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>41275</v>
       </c>
@@ -8207,7 +8206,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>41306</v>
       </c>
@@ -8227,7 +8226,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>41334</v>
       </c>
@@ -8247,7 +8246,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>41365</v>
       </c>
@@ -8267,7 +8266,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>41395</v>
       </c>
@@ -8287,7 +8286,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>41426</v>
       </c>
@@ -8307,7 +8306,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>41456</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>41487</v>
       </c>
@@ -8353,7 +8352,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>41518</v>
       </c>
@@ -8373,7 +8372,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>41548</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>41579</v>
       </c>
@@ -8419,7 +8418,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>41609</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>227</v>
@@ -8464,7 +8463,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>100</v>
       </c>
@@ -8486,7 +8485,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>41640</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>290</v>
@@ -8532,7 +8531,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>41671</v>
       </c>
@@ -8552,7 +8551,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>41699</v>
       </c>
@@ -8572,7 +8571,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>41730</v>
       </c>
@@ -8598,7 +8597,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>63</v>
@@ -8618,7 +8617,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>41760</v>
       </c>
@@ -8638,7 +8637,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>41791</v>
       </c>
@@ -8658,7 +8657,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>41821</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>41852</v>
       </c>
@@ -8704,7 +8703,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>41883</v>
       </c>
@@ -8724,7 +8723,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>41913</v>
       </c>
@@ -8744,7 +8743,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>41944</v>
       </c>
@@ -8764,7 +8763,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>41974</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>217</v>
@@ -8812,7 +8811,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="48" t="s">
         <v>99</v>
       </c>
@@ -8834,7 +8833,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>42005</v>
       </c>
@@ -8854,7 +8853,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>42036</v>
       </c>
@@ -8874,7 +8873,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42064</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>267</v>
@@ -8922,7 +8921,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42095</v>
       </c>
@@ -8942,7 +8941,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>42125</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>42221</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>65</v>
@@ -8990,7 +8989,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>42156</v>
       </c>
@@ -9010,7 +9009,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>42186</v>
       </c>
@@ -9030,7 +9029,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>42217</v>
       </c>
@@ -9050,7 +9049,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>42248</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>42278</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>42309</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>42339</v>
       </c>
@@ -9146,7 +9145,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="48" t="s">
         <v>98</v>
       </c>
@@ -9168,7 +9167,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>42370</v>
       </c>
@@ -9194,7 +9193,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>42401</v>
       </c>
@@ -9214,7 +9213,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>42430</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>177</v>
@@ -9260,7 +9259,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>42461</v>
       </c>
@@ -9280,7 +9279,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>42491</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>42522</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>198</v>
@@ -9354,7 +9353,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>42552</v>
       </c>
@@ -9374,7 +9373,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>42583</v>
       </c>
@@ -9398,7 +9397,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -9418,7 +9417,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>42614</v>
       </c>
@@ -9438,7 +9437,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>42644</v>
       </c>
@@ -9458,7 +9457,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>42675</v>
       </c>
@@ -9478,7 +9477,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>42705</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>97</v>
       </c>
@@ -9526,7 +9525,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>42736</v>
       </c>
@@ -9552,7 +9551,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>42767</v>
       </c>
@@ -9572,7 +9571,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>42795</v>
       </c>
@@ -9592,7 +9591,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>42826</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>42856</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -9664,7 +9663,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>45</v>
@@ -9686,7 +9685,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>63</v>
@@ -9706,7 +9705,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>45</v>
@@ -9728,7 +9727,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>42887</v>
       </c>
@@ -9748,7 +9747,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>42917</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>42948</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>45</v>
@@ -9822,7 +9821,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>42979</v>
       </c>
@@ -9842,7 +9841,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>43009</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>65</v>
@@ -9892,7 +9891,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>43040</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>93</v>
@@ -9940,7 +9939,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>43070</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="48" t="s">
         <v>44</v>
       </c>
@@ -9988,7 +9987,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43101</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>46</v>
@@ -10031,7 +10030,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43132</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43160</v>
       </c>
@@ -10077,7 +10076,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43191</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>47</v>
@@ -10122,7 +10121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>45</v>
@@ -10141,7 +10140,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43221</v>
       </c>
@@ -10161,7 +10160,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>43252</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>48</v>
@@ -10206,7 +10205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>45</v>
@@ -10225,7 +10224,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>49</v>
@@ -10244,7 +10243,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -10263,7 +10262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>43282</v>
       </c>
@@ -10289,7 +10288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>55</v>
@@ -10308,7 +10307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>43313</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>43344</v>
       </c>
@@ -10354,7 +10353,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>43374</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>43405</v>
       </c>
@@ -10406,7 +10405,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -10425,7 +10424,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>43435</v>
       </c>
@@ -10445,7 +10444,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="48" t="s">
         <v>61</v>
       </c>
@@ -10463,7 +10462,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43466</v>
       </c>
@@ -10489,7 +10488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>43497</v>
       </c>
@@ -10509,7 +10508,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43525</v>
       </c>
@@ -10529,7 +10528,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>43556</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>45</v>
@@ -10574,7 +10573,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>63</v>
@@ -10591,7 +10590,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>43586</v>
       </c>
@@ -10617,7 +10616,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>43617</v>
       </c>
@@ -10643,7 +10642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43647</v>
       </c>
@@ -10663,7 +10662,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43678</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -10708,7 +10707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -10727,7 +10726,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43709</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43739</v>
       </c>
@@ -10773,7 +10772,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43770</v>
       </c>
@@ -10793,7 +10792,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43800</v>
       </c>
@@ -10819,7 +10818,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>65</v>
@@ -10841,7 +10840,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>55</v>
@@ -10863,7 +10862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
         <v>72</v>
       </c>
@@ -10881,7 +10880,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43831</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>43862</v>
       </c>
@@ -10931,7 +10930,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -10950,7 +10949,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43891</v>
       </c>
@@ -10970,7 +10969,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43922</v>
       </c>
@@ -10990,7 +10989,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43952</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43983</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>45</v>
@@ -11061,7 +11060,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>44013</v>
       </c>
@@ -11081,7 +11080,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>44044</v>
       </c>
@@ -11101,7 +11100,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>44075</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44105</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>63</v>
@@ -11170,7 +11169,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>75</v>
@@ -11189,7 +11188,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>44136</v>
       </c>
@@ -11209,7 +11208,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>44166</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>65</v>
@@ -11257,7 +11256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>78</v>
@@ -11274,7 +11273,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="48" t="s">
         <v>77</v>
       </c>
@@ -11292,7 +11291,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44197</v>
       </c>
@@ -11318,7 +11317,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>45</v>
@@ -11337,7 +11336,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>44228</v>
       </c>
@@ -11363,7 +11362,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>46</v>
@@ -11382,7 +11381,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44256</v>
       </c>
@@ -11402,7 +11401,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44287</v>
       </c>
@@ -11428,7 +11427,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>63</v>
@@ -11445,7 +11444,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44317</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>45</v>
@@ -11490,7 +11489,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44348</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>48</v>
@@ -11535,7 +11534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44378</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>45</v>
@@ -11580,7 +11579,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>45</v>
@@ -11599,7 +11598,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44409</v>
       </c>
@@ -11619,7 +11618,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>44440</v>
       </c>
@@ -11645,7 +11644,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>45</v>
@@ -11664,7 +11663,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44470</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>44501</v>
       </c>
@@ -11710,7 +11709,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44531</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>81</v>
       </c>
@@ -11754,7 +11753,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44562</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44593</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>55</v>
@@ -11823,7 +11822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44621</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44652</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>63</v>
@@ -11890,7 +11889,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44682</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44713</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>45</v>
@@ -11961,7 +11960,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44743</v>
       </c>
@@ -11987,7 +11986,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>65</v>
@@ -12006,7 +12005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>45</v>
@@ -12028,7 +12027,7 @@
         <v>44768</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44774</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44805</v>
       </c>
@@ -12080,7 +12079,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44835</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -12126,7 +12125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44866</v>
       </c>
@@ -12146,7 +12145,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44896</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="48" t="s">
         <v>90</v>
       </c>
@@ -12190,7 +12189,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44927</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>45</v>
@@ -12238,7 +12237,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44958</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>93</v>
@@ -12286,7 +12285,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44986</v>
       </c>
@@ -12312,7 +12311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>45</v>
@@ -12334,7 +12333,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>45017</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>63</v>
@@ -12380,22 +12379,24 @@
         <v>322</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>45047</v>
       </c>
       <c r="B460" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C460" s="13"/>
+      <c r="C460" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D460" s="39">
         <v>2</v>
       </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G460" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
@@ -12404,7 +12405,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>45</v>
@@ -12426,20 +12427,22 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>45078</v>
       </c>
       <c r="B462" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C462" s="13"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D462" s="39"/>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H462" s="39">
         <v>4</v>
@@ -12450,29 +12453,37 @@
         <v>326</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>45108</v>
       </c>
-      <c r="B463" s="20"/>
-      <c r="C463" s="13"/>
-      <c r="D463" s="39"/>
+      <c r="B463" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D463" s="39">
+        <v>1</v>
+      </c>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A464" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B464" s="20"/>
+      <c r="K463" s="49">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="40"/>
+      <c r="B464" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C464" s="13"/>
       <c r="D464" s="39"/>
       <c r="E464" s="9"/>
@@ -12481,16 +12492,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H464" s="39"/>
+      <c r="H464" s="39">
+        <v>1</v>
+      </c>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A465" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B465" s="20"/>
+      <c r="K464" s="49">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="40"/>
+      <c r="B465" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C465" s="13"/>
       <c r="D465" s="39"/>
       <c r="E465" s="9"/>
@@ -12499,14 +12514,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H465" s="39"/>
+      <c r="H465" s="39">
+        <v>1</v>
+      </c>
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
-      <c r="K465" s="20"/>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K465" s="49">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12522,9 +12541,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12540,9 +12559,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12558,9 +12577,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12576,9 +12595,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12594,9 +12613,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12612,9 +12631,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12630,9 +12649,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12648,9 +12667,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12666,9 +12685,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12684,9 +12703,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12702,9 +12721,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12720,9 +12739,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12738,9 +12757,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12756,9 +12775,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12774,9 +12793,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12792,9 +12811,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12810,9 +12829,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12828,9 +12847,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12846,9 +12865,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12864,9 +12883,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12882,9 +12901,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12900,9 +12919,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12918,9 +12937,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12936,9 +12955,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12954,9 +12973,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12972,9 +12991,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12990,9 +13009,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -13008,9 +13027,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13026,9 +13045,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13044,9 +13063,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13062,9 +13081,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13080,9 +13099,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13098,9 +13117,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -13116,8 +13135,10 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A500" s="40"/>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" s="40">
+        <v>46174</v>
+      </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
       <c r="D500" s="39"/>
@@ -13132,8 +13153,10 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A501" s="40"/>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501" s="40">
+        <v>46204</v>
+      </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
       <c r="D501" s="39"/>
@@ -13148,7 +13171,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13164,7 +13187,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13180,7 +13203,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13196,7 +13219,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13212,21 +13235,53 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A506" s="41"/>
-      <c r="B506" s="15"/>
-      <c r="C506" s="42"/>
-      <c r="D506" s="43"/>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" s="40"/>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39"/>
       <c r="E506" s="9"/>
-      <c r="F506" s="15"/>
-      <c r="G506" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H506" s="43"/>
+      <c r="F506" s="20"/>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="39"/>
       <c r="I506" s="9"/>
-      <c r="J506" s="12"/>
-      <c r="K506" s="15"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A507" s="40"/>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="39"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="20"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="39"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="11"/>
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" s="41"/>
+      <c r="B508" s="15"/>
+      <c r="C508" s="42"/>
+      <c r="D508" s="43"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="15"/>
+      <c r="G508" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H508" s="43"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="12"/>
+      <c r="K508" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13243,10 +13298,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13269,28 +13324,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -13303,7 +13358,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13332,7 +13387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13358,17 +13413,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>324</v>
       </c>
@@ -13392,10 +13447,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>206.93200000000002</v>
+        <v>211.43200000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13423,7 +13478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13449,7 +13504,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13475,7 +13530,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13501,7 +13556,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13527,7 +13582,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13553,7 +13608,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13579,7 +13634,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13605,7 +13660,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13625,7 +13680,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13645,7 +13700,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13665,7 +13720,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13686,7 +13741,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13707,7 +13762,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13728,7 +13783,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13749,7 +13804,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13770,7 +13825,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13791,7 +13846,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13812,7 +13867,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13833,7 +13888,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13854,7 +13909,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13875,7 +13930,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13896,7 +13951,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13917,7 +13972,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13938,7 +13993,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13959,7 +14014,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13980,7 +14035,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14001,7 +14056,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14022,7 +14077,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14043,7 +14098,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14064,7 +14119,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14085,7 +14140,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14094,7 +14149,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14103,7 +14158,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14112,7 +14167,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14121,7 +14176,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14130,7 +14185,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14139,7 +14194,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14148,7 +14203,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14157,7 +14212,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14166,7 +14221,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14175,7 +14230,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14184,7 +14239,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14193,7 +14248,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14202,7 +14257,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14211,7 +14266,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14220,7 +14275,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14229,7 +14284,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14238,7 +14293,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14247,7 +14302,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14256,7 +14311,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14265,7 +14320,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14274,7 +14329,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14283,7 +14338,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14292,7 +14347,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14301,7 +14356,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14310,7 +14365,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14319,7 +14374,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14328,7 +14383,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14337,7 +14392,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14346,7 +14401,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/MALIGAYO, YOLANDA.xlsx
+++ b/REGULAR/OJT/MALIGAYO, YOLANDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D6C54-2A6B-44C2-864B-844E06D89EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="334">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1027,12 +1026,21 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>11/27,28/2023</t>
+  </si>
+  <si>
+    <t>11/9,14/2023</t>
+  </si>
+  <si>
+    <t>11/21,22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1710,7 +1718,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1727,26 +1735,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K511" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K516"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2053,34 +2061,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K511"/>
+  <dimension ref="A2:K516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3696" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A453" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:G11"/>
+      <selection pane="bottomLeft" activeCell="K478" sqref="K478"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2109,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2129,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2143,7 +2151,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2151,7 +2159,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2164,7 +2172,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2181,7 +2189,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2225,7 +2233,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.92399999999998</v>
+        <v>152.67399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2235,12 +2243,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>174.12799999999999</v>
+        <v>161.87799999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>96</v>
       </c>
@@ -2262,7 +2270,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="51" t="s">
         <v>328</v>
@@ -2281,7 +2289,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="51" t="s">
         <v>329</v>
@@ -2299,7 +2307,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36342</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>36373</v>
       </c>
@@ -2349,7 +2357,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>36404</v>
       </c>
@@ -2375,7 +2383,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>116</v>
@@ -2395,7 +2403,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36434</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>117</v>
@@ -2441,7 +2449,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>36465</v>
       </c>
@@ -2467,7 +2475,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>118</v>
@@ -2484,7 +2492,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>36495</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>119</v>
@@ -2530,7 +2538,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>114</v>
       </c>
@@ -2552,7 +2560,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36526</v>
       </c>
@@ -2578,7 +2586,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>124</v>
@@ -2598,7 +2606,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>36557</v>
       </c>
@@ -2622,7 +2630,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36586</v>
       </c>
@@ -2648,7 +2656,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>126</v>
@@ -2668,7 +2676,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36617</v>
       </c>
@@ -2694,7 +2702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>126</v>
@@ -2714,7 +2722,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36647</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>130</v>
@@ -2760,7 +2768,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>36678</v>
       </c>
@@ -2786,7 +2794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -2808,7 +2816,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>131</v>
@@ -2828,7 +2836,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>36708</v>
       </c>
@@ -2852,7 +2860,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36739</v>
       </c>
@@ -2878,7 +2886,7 @@
         <v>36838</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>45</v>
@@ -2900,7 +2908,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>133</v>
@@ -2920,7 +2928,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36770</v>
       </c>
@@ -2946,7 +2954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>36800</v>
       </c>
@@ -2970,7 +2978,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>36831</v>
       </c>
@@ -2996,7 +3004,7 @@
         <v>36717</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>135</v>
@@ -3016,7 +3024,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>36861</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
@@ -3062,7 +3070,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>113</v>
       </c>
@@ -3084,7 +3092,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>36892</v>
       </c>
@@ -3108,7 +3116,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>36923</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36951</v>
       </c>
@@ -3160,7 +3168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>144</v>
@@ -3180,7 +3188,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>36982</v>
       </c>
@@ -3206,7 +3214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -3228,7 +3236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>37012</v>
       </c>
@@ -3252,7 +3260,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37043</v>
       </c>
@@ -3276,7 +3284,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>37073</v>
       </c>
@@ -3300,7 +3308,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>37104</v>
       </c>
@@ -3326,7 +3334,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>147</v>
@@ -3346,7 +3354,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>37135</v>
       </c>
@@ -3370,7 +3378,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>37165</v>
       </c>
@@ -3396,7 +3404,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>37196</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>37023</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>149</v>
@@ -3442,7 +3450,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37226</v>
       </c>
@@ -3466,7 +3474,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>112</v>
       </c>
@@ -3488,7 +3496,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37257</v>
       </c>
@@ -3512,7 +3520,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>37288</v>
       </c>
@@ -3538,7 +3546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>149</v>
@@ -3558,7 +3566,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37316</v>
       </c>
@@ -3582,7 +3590,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>37347</v>
       </c>
@@ -3606,7 +3614,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>37377</v>
       </c>
@@ -3632,7 +3640,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>46</v>
@@ -3654,7 +3662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>158</v>
@@ -3674,7 +3682,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37408</v>
       </c>
@@ -3698,7 +3706,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>37438</v>
       </c>
@@ -3724,7 +3732,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>37469</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>37500</v>
       </c>
@@ -3770,7 +3778,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>37530</v>
       </c>
@@ -3790,7 +3798,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>37561</v>
       </c>
@@ -3810,7 +3818,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37591</v>
       </c>
@@ -3834,7 +3842,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>111</v>
       </c>
@@ -3856,7 +3864,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>37622</v>
       </c>
@@ -3876,7 +3884,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>37653</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>166</v>
@@ -3917,7 +3925,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>37681</v>
       </c>
@@ -3941,7 +3949,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>37712</v>
       </c>
@@ -3965,7 +3973,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>37742</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>168</v>
@@ -4011,7 +4019,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37773</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>174</v>
@@ -4057,7 +4065,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>37803</v>
       </c>
@@ -4081,7 +4089,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37834</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>149</v>
@@ -4127,7 +4135,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>37865</v>
       </c>
@@ -4153,7 +4161,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4175,7 +4183,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>37895</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>45</v>
@@ -4223,7 +4231,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>148</v>
@@ -4243,7 +4251,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>37926</v>
       </c>
@@ -4269,7 +4277,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -4291,7 +4299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>37956</v>
       </c>
@@ -4317,7 +4325,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>55</v>
@@ -4339,7 +4347,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>45</v>
@@ -4361,7 +4369,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>165</v>
@@ -4381,7 +4389,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>110</v>
       </c>
@@ -4403,7 +4411,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>37987</v>
       </c>
@@ -4429,7 +4437,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>116</v>
@@ -4449,7 +4457,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>38018</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>38140</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4497,7 +4505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>116</v>
@@ -4517,7 +4525,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38047</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>183</v>
@@ -4561,7 +4569,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>38078</v>
       </c>
@@ -4585,7 +4593,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>38108</v>
       </c>
@@ -4611,7 +4619,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>185</v>
@@ -4631,7 +4639,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38139</v>
       </c>
@@ -4657,7 +4665,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>186</v>
@@ -4677,7 +4685,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>38169</v>
       </c>
@@ -4701,7 +4709,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>38200</v>
       </c>
@@ -4727,7 +4735,7 @@
         <v>38146</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>192</v>
@@ -4747,7 +4755,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>38231</v>
       </c>
@@ -4771,7 +4779,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>38261</v>
       </c>
@@ -4795,7 +4803,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>38292</v>
       </c>
@@ -4819,7 +4827,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>38322</v>
       </c>
@@ -4843,7 +4851,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>196</v>
@@ -4863,7 +4871,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>109</v>
       </c>
@@ -4885,7 +4893,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>38353</v>
       </c>
@@ -4909,7 +4917,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>38384</v>
       </c>
@@ -4933,7 +4941,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>38412</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>45</v>
@@ -4981,7 +4989,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>63</v>
@@ -5001,7 +5009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>196</v>
@@ -5021,7 +5029,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>38443</v>
       </c>
@@ -5045,7 +5053,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>38473</v>
       </c>
@@ -5069,7 +5077,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>38504</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>38631</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>200</v>
@@ -5115,7 +5123,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="49"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>38534</v>
       </c>
@@ -5139,7 +5147,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>38565</v>
       </c>
@@ -5165,7 +5173,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>149</v>
@@ -5185,7 +5193,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>38596</v>
       </c>
@@ -5205,7 +5213,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>38626</v>
       </c>
@@ -5231,7 +5239,7 @@
         <v>38452</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>149</v>
@@ -5251,7 +5259,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>38657</v>
       </c>
@@ -5275,7 +5283,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>38687</v>
       </c>
@@ -5299,7 +5307,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>157</v>
@@ -5316,7 +5324,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>107</v>
       </c>
@@ -5338,7 +5346,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38718</v>
       </c>
@@ -5362,7 +5370,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>206</v>
@@ -5382,7 +5390,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>38749</v>
       </c>
@@ -5408,7 +5416,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>177</v>
@@ -5428,7 +5436,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>38777</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>45</v>
@@ -5476,7 +5484,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>63</v>
@@ -5496,7 +5504,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>208</v>
@@ -5516,7 +5524,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>38808</v>
       </c>
@@ -5540,7 +5548,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>63</v>
@@ -5560,7 +5568,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>38838</v>
       </c>
@@ -5584,7 +5592,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>38869</v>
       </c>
@@ -5608,7 +5616,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>38899</v>
       </c>
@@ -5632,7 +5640,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38930</v>
       </c>
@@ -5656,7 +5664,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>38961</v>
       </c>
@@ -5680,7 +5688,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>38991</v>
       </c>
@@ -5704,7 +5712,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>39022</v>
       </c>
@@ -5730,7 +5738,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>39052</v>
       </c>
@@ -5756,7 +5764,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>219</v>
@@ -5776,7 +5784,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
         <v>108</v>
       </c>
@@ -5798,7 +5806,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>39083</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>222</v>
@@ -5842,7 +5850,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>39114</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>39418</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>58</v>
@@ -5890,7 +5898,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>149</v>
@@ -5910,7 +5918,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>39142</v>
       </c>
@@ -5934,7 +5942,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>39173</v>
       </c>
@@ -5960,7 +5968,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>63</v>
@@ -5980,7 +5988,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>46</v>
@@ -6002,7 +6010,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>39203</v>
       </c>
@@ -6026,7 +6034,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>39234</v>
       </c>
@@ -6052,7 +6060,7 @@
         <v>39239</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>167</v>
@@ -6072,7 +6080,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>39264</v>
       </c>
@@ -6098,7 +6106,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>228</v>
@@ -6115,7 +6123,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>39295</v>
       </c>
@@ -6139,7 +6147,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>39326</v>
       </c>
@@ -6165,7 +6173,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>45</v>
@@ -6187,7 +6195,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>186</v>
@@ -6207,7 +6215,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>39356</v>
       </c>
@@ -6231,7 +6239,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>226</v>
@@ -6251,7 +6259,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39387</v>
       </c>
@@ -6277,7 +6285,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>197</v>
@@ -6297,7 +6305,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>39417</v>
       </c>
@@ -6321,7 +6329,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>106</v>
       </c>
@@ -6343,7 +6351,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39448</v>
       </c>
@@ -6367,7 +6375,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>39479</v>
       </c>
@@ -6391,7 +6399,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>39508</v>
       </c>
@@ -6415,7 +6423,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>39539</v>
       </c>
@@ -6439,7 +6447,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>235</v>
@@ -6459,7 +6467,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>39569</v>
       </c>
@@ -6483,7 +6491,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>39600</v>
       </c>
@@ -6509,7 +6517,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>63</v>
@@ -6529,7 +6537,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>237</v>
@@ -6549,7 +6557,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>39630</v>
       </c>
@@ -6575,7 +6583,7 @@
         <v>39759</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>236</v>
@@ -6595,7 +6603,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>39661</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>45</v>
@@ -6643,7 +6651,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>238</v>
@@ -6663,7 +6671,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>39692</v>
       </c>
@@ -6687,7 +6695,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>244</v>
@@ -6707,7 +6715,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>39722</v>
       </c>
@@ -6733,7 +6741,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>240</v>
@@ -6755,7 +6763,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>236</v>
@@ -6775,7 +6783,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>39753</v>
       </c>
@@ -6801,7 +6809,7 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>251</v>
@@ -6821,7 +6829,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="49"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>39783</v>
       </c>
@@ -6845,7 +6853,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="48" t="s">
         <v>105</v>
       </c>
@@ -6867,7 +6875,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>39814</v>
       </c>
@@ -6891,7 +6899,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>39845</v>
       </c>
@@ -6915,7 +6923,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>39873</v>
       </c>
@@ -6939,7 +6947,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>214</v>
@@ -6959,7 +6967,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>39904</v>
       </c>
@@ -6983,7 +6991,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>39934</v>
       </c>
@@ -7007,7 +7015,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>39965</v>
       </c>
@@ -7031,7 +7039,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>39995</v>
       </c>
@@ -7055,7 +7063,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>40026</v>
       </c>
@@ -7081,7 +7089,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>257</v>
@@ -7101,7 +7109,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>40057</v>
       </c>
@@ -7125,7 +7133,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>40087</v>
       </c>
@@ -7149,7 +7157,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>40118</v>
       </c>
@@ -7175,7 +7183,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>260</v>
@@ -7195,7 +7203,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>40148</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>217</v>
@@ -7243,7 +7251,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>261</v>
@@ -7263,7 +7271,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="48" t="s">
         <v>104</v>
       </c>
@@ -7285,7 +7293,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>40179</v>
       </c>
@@ -7311,7 +7319,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>268</v>
@@ -7331,7 +7339,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>40210</v>
       </c>
@@ -7355,7 +7363,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>40238</v>
       </c>
@@ -7379,7 +7387,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>40269</v>
       </c>
@@ -7399,7 +7407,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>40299</v>
       </c>
@@ -7425,7 +7433,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>40330</v>
       </c>
@@ -7445,7 +7453,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>40360</v>
       </c>
@@ -7471,7 +7479,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>270</v>
@@ -7493,7 +7501,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>40391</v>
       </c>
@@ -7519,7 +7527,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>40422</v>
       </c>
@@ -7545,7 +7553,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>40452</v>
       </c>
@@ -7565,7 +7573,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>40483</v>
       </c>
@@ -7591,7 +7599,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>40513</v>
       </c>
@@ -7611,7 +7619,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>103</v>
       </c>
@@ -7633,7 +7641,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>40544</v>
       </c>
@@ -7653,7 +7661,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>40575</v>
       </c>
@@ -7673,7 +7681,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>40603</v>
       </c>
@@ -7697,7 +7705,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>40634</v>
       </c>
@@ -7717,7 +7725,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>40664</v>
       </c>
@@ -7737,7 +7745,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>40695</v>
       </c>
@@ -7761,7 +7769,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>40725</v>
       </c>
@@ -7781,7 +7789,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>40756</v>
       </c>
@@ -7801,7 +7809,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>40787</v>
       </c>
@@ -7821,7 +7829,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>40817</v>
       </c>
@@ -7847,7 +7855,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>40848</v>
       </c>
@@ -7867,7 +7875,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>40878</v>
       </c>
@@ -7893,7 +7901,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>78</v>
@@ -7910,7 +7918,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
         <v>102</v>
       </c>
@@ -7932,7 +7940,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>40909</v>
       </c>
@@ -7952,7 +7960,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>40940</v>
       </c>
@@ -7978,7 +7986,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>40969</v>
       </c>
@@ -7998,7 +8006,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>41000</v>
       </c>
@@ -8018,7 +8026,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>41030</v>
       </c>
@@ -8044,7 +8052,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>41061</v>
       </c>
@@ -8064,7 +8072,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>41091</v>
       </c>
@@ -8084,7 +8092,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>41122</v>
       </c>
@@ -8104,7 +8112,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>41153</v>
       </c>
@@ -8124,7 +8132,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>41183</v>
       </c>
@@ -8144,7 +8152,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>41214</v>
       </c>
@@ -8170,7 +8178,7 @@
         <v>40980</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>78</v>
@@ -8189,7 +8197,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>41244</v>
       </c>
@@ -8215,7 +8223,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="48" t="s">
         <v>101</v>
       </c>
@@ -8237,7 +8245,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>41275</v>
       </c>
@@ -8257,7 +8265,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>41306</v>
       </c>
@@ -8277,7 +8285,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>41334</v>
       </c>
@@ -8297,7 +8305,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>41365</v>
       </c>
@@ -8317,7 +8325,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <v>41395</v>
       </c>
@@ -8337,7 +8345,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>41426</v>
       </c>
@@ -8357,7 +8365,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>41456</v>
       </c>
@@ -8383,7 +8391,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>41487</v>
       </c>
@@ -8403,7 +8411,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>41518</v>
       </c>
@@ -8423,7 +8431,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>41548</v>
       </c>
@@ -8449,7 +8457,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>41579</v>
       </c>
@@ -8469,7 +8477,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>41609</v>
       </c>
@@ -8495,7 +8503,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>227</v>
@@ -8514,7 +8522,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="48" t="s">
         <v>100</v>
       </c>
@@ -8536,7 +8544,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>41640</v>
       </c>
@@ -8560,7 +8568,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>290</v>
@@ -8582,7 +8590,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>41671</v>
       </c>
@@ -8602,7 +8610,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>41699</v>
       </c>
@@ -8622,7 +8630,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>41730</v>
       </c>
@@ -8648,7 +8656,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>63</v>
@@ -8668,7 +8676,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>41760</v>
       </c>
@@ -8688,7 +8696,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>41791</v>
       </c>
@@ -8708,7 +8716,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>41821</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>41852</v>
       </c>
@@ -8754,7 +8762,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>41883</v>
       </c>
@@ -8774,7 +8782,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>41913</v>
       </c>
@@ -8794,7 +8802,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>41944</v>
       </c>
@@ -8814,7 +8822,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>41974</v>
       </c>
@@ -8840,7 +8848,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>217</v>
@@ -8862,7 +8870,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="48" t="s">
         <v>99</v>
       </c>
@@ -8884,7 +8892,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42005</v>
       </c>
@@ -8904,7 +8912,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>42036</v>
       </c>
@@ -8924,7 +8932,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42064</v>
       </c>
@@ -8950,7 +8958,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>267</v>
@@ -8972,7 +8980,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>42095</v>
       </c>
@@ -8992,7 +9000,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>42125</v>
       </c>
@@ -9018,7 +9026,7 @@
         <v>42221</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>65</v>
@@ -9040,7 +9048,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>42156</v>
       </c>
@@ -9060,7 +9068,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>42186</v>
       </c>
@@ -9080,7 +9088,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>42217</v>
       </c>
@@ -9100,7 +9108,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>42248</v>
       </c>
@@ -9126,7 +9134,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>42278</v>
       </c>
@@ -9150,7 +9158,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>42309</v>
       </c>
@@ -9176,7 +9184,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>42339</v>
       </c>
@@ -9196,7 +9204,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>98</v>
       </c>
@@ -9218,7 +9226,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>42370</v>
       </c>
@@ -9244,7 +9252,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>42401</v>
       </c>
@@ -9264,7 +9272,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>42430</v>
       </c>
@@ -9290,7 +9298,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>177</v>
@@ -9310,7 +9318,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>42461</v>
       </c>
@@ -9330,7 +9338,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>42491</v>
       </c>
@@ -9356,7 +9364,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>42522</v>
       </c>
@@ -9382,7 +9390,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>198</v>
@@ -9404,7 +9412,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>42552</v>
       </c>
@@ -9424,7 +9432,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>42583</v>
       </c>
@@ -9448,7 +9456,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>49</v>
@@ -9468,7 +9476,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>42614</v>
       </c>
@@ -9488,7 +9496,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>42644</v>
       </c>
@@ -9508,7 +9516,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>42675</v>
       </c>
@@ -9528,7 +9536,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <v>42705</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>97</v>
       </c>
@@ -9576,7 +9584,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>42736</v>
       </c>
@@ -9602,7 +9610,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>42767</v>
       </c>
@@ -9622,7 +9630,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>42795</v>
       </c>
@@ -9642,7 +9650,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>42826</v>
       </c>
@@ -9666,7 +9674,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>42856</v>
       </c>
@@ -9692,7 +9700,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>65</v>
@@ -9714,7 +9722,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>45</v>
@@ -9736,7 +9744,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>63</v>
@@ -9756,7 +9764,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>45</v>
@@ -9778,7 +9786,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>42887</v>
       </c>
@@ -9798,7 +9806,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>42917</v>
       </c>
@@ -9824,7 +9832,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>42948</v>
       </c>
@@ -9850,7 +9858,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>45</v>
@@ -9872,7 +9880,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>42979</v>
       </c>
@@ -9892,7 +9900,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>43009</v>
       </c>
@@ -9920,7 +9928,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>65</v>
@@ -9942,7 +9950,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>43040</v>
       </c>
@@ -9968,7 +9976,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>93</v>
@@ -9990,7 +9998,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>43070</v>
       </c>
@@ -10016,7 +10024,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="48" t="s">
         <v>44</v>
       </c>
@@ -10038,7 +10046,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43101</v>
       </c>
@@ -10064,7 +10072,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>46</v>
@@ -10081,7 +10089,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43132</v>
       </c>
@@ -10107,7 +10115,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43160</v>
       </c>
@@ -10127,7 +10135,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43191</v>
       </c>
@@ -10153,7 +10161,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>47</v>
@@ -10172,7 +10180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>45</v>
@@ -10191,7 +10199,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>43221</v>
       </c>
@@ -10211,7 +10219,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>43252</v>
       </c>
@@ -10237,7 +10245,7 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>48</v>
@@ -10256,7 +10264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>45</v>
@@ -10275,7 +10283,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>49</v>
@@ -10294,7 +10302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>48</v>
@@ -10313,7 +10321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>43282</v>
       </c>
@@ -10339,7 +10347,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>55</v>
@@ -10358,7 +10366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>43313</v>
       </c>
@@ -10384,7 +10392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>43344</v>
       </c>
@@ -10404,7 +10412,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>43374</v>
       </c>
@@ -10430,7 +10438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>43405</v>
       </c>
@@ -10456,7 +10464,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>45</v>
@@ -10475,7 +10483,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43435</v>
       </c>
@@ -10495,7 +10503,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>61</v>
       </c>
@@ -10513,7 +10521,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43466</v>
       </c>
@@ -10539,7 +10547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>43497</v>
       </c>
@@ -10559,7 +10567,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>43525</v>
       </c>
@@ -10579,7 +10587,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>43556</v>
       </c>
@@ -10605,7 +10613,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>45</v>
@@ -10624,7 +10632,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>63</v>
@@ -10641,7 +10649,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43586</v>
       </c>
@@ -10667,7 +10675,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43617</v>
       </c>
@@ -10693,7 +10701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>43647</v>
       </c>
@@ -10713,7 +10721,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>43678</v>
       </c>
@@ -10739,7 +10747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>48</v>
@@ -10758,7 +10766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>49</v>
@@ -10777,7 +10785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43709</v>
       </c>
@@ -10803,7 +10811,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43739</v>
       </c>
@@ -10823,7 +10831,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>43770</v>
       </c>
@@ -10843,7 +10851,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43800</v>
       </c>
@@ -10869,7 +10877,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>65</v>
@@ -10891,7 +10899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>55</v>
@@ -10913,7 +10921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
         <v>72</v>
       </c>
@@ -10931,7 +10939,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43831</v>
       </c>
@@ -10955,7 +10963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43862</v>
       </c>
@@ -10981,7 +10989,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>45</v>
@@ -11000,7 +11008,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43891</v>
       </c>
@@ -11020,7 +11028,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43922</v>
       </c>
@@ -11040,7 +11048,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>43952</v>
       </c>
@@ -11066,7 +11074,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43983</v>
       </c>
@@ -11092,7 +11100,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>45</v>
@@ -11111,7 +11119,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>44013</v>
       </c>
@@ -11131,7 +11139,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44044</v>
       </c>
@@ -11151,7 +11159,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>44075</v>
       </c>
@@ -11177,7 +11185,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>44105</v>
       </c>
@@ -11203,7 +11211,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>63</v>
@@ -11220,7 +11228,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>75</v>
@@ -11239,7 +11247,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>44136</v>
       </c>
@@ -11259,7 +11267,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>44166</v>
       </c>
@@ -11285,7 +11293,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>65</v>
@@ -11307,7 +11315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>78</v>
@@ -11324,7 +11332,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="48" t="s">
         <v>77</v>
       </c>
@@ -11342,7 +11350,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>44197</v>
       </c>
@@ -11368,7 +11376,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>45</v>
@@ -11387,7 +11395,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44228</v>
       </c>
@@ -11413,7 +11421,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>46</v>
@@ -11432,7 +11440,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>44256</v>
       </c>
@@ -11452,7 +11460,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44287</v>
       </c>
@@ -11478,7 +11486,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>63</v>
@@ -11495,7 +11503,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44317</v>
       </c>
@@ -11521,7 +11529,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>45</v>
@@ -11540,7 +11548,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44348</v>
       </c>
@@ -11566,7 +11574,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>48</v>
@@ -11585,7 +11593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44378</v>
       </c>
@@ -11611,7 +11619,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>45</v>
@@ -11630,7 +11638,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>45</v>
@@ -11649,7 +11657,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44409</v>
       </c>
@@ -11669,7 +11677,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44440</v>
       </c>
@@ -11695,7 +11703,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -11714,7 +11722,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44470</v>
       </c>
@@ -11740,7 +11748,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>44501</v>
       </c>
@@ -11760,7 +11768,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44531</v>
       </c>
@@ -11786,7 +11794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="48" t="s">
         <v>81</v>
       </c>
@@ -11804,7 +11812,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>44562</v>
       </c>
@@ -11828,7 +11836,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44593</v>
       </c>
@@ -11854,7 +11862,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>55</v>
@@ -11873,7 +11881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44621</v>
       </c>
@@ -11899,7 +11907,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44652</v>
       </c>
@@ -11923,7 +11931,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>63</v>
@@ -11940,7 +11948,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>44682</v>
       </c>
@@ -11966,7 +11974,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44713</v>
       </c>
@@ -11992,7 +12000,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>45</v>
@@ -12011,7 +12019,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>44743</v>
       </c>
@@ -12037,7 +12045,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>65</v>
@@ -12056,7 +12064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>45</v>
@@ -12078,7 +12086,7 @@
         <v>44768</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44774</v>
       </c>
@@ -12104,7 +12112,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>44805</v>
       </c>
@@ -12130,7 +12138,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44835</v>
       </c>
@@ -12154,7 +12162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>48</v>
@@ -12176,7 +12184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>44866</v>
       </c>
@@ -12196,7 +12204,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44896</v>
       </c>
@@ -12222,7 +12230,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="48" t="s">
         <v>90</v>
       </c>
@@ -12240,7 +12248,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44957</v>
       </c>
@@ -12266,7 +12274,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>45</v>
@@ -12288,7 +12296,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44985</v>
       </c>
@@ -12314,7 +12322,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>93</v>
@@ -12336,7 +12344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>45016</v>
       </c>
@@ -12362,7 +12370,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>45</v>
@@ -12384,7 +12392,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>45046</v>
       </c>
@@ -12410,7 +12418,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>63</v>
@@ -12430,7 +12438,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>45077</v>
       </c>
@@ -12456,7 +12464,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>45</v>
@@ -12478,7 +12486,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>45107</v>
       </c>
@@ -12504,7 +12512,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>45138</v>
       </c>
@@ -12530,7 +12538,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>45</v>
@@ -12552,7 +12560,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>45</v>
@@ -12574,7 +12582,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>45169</v>
       </c>
@@ -12600,7 +12608,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>45</v>
@@ -12622,7 +12630,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>45199</v>
       </c>
@@ -12648,7 +12656,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>45230</v>
       </c>
@@ -12668,15 +12676,19 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>45260</v>
       </c>
-      <c r="B472" s="20"/>
+      <c r="B472" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C472" s="13">
         <v>1.25</v>
       </c>
-      <c r="D472" s="39"/>
+      <c r="D472" s="39">
+        <v>2</v>
+      </c>
       <c r="E472" s="9"/>
       <c r="F472" s="20"/>
       <c r="G472" s="13">
@@ -12686,33 +12698,37 @@
       <c r="H472" s="39"/>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="20"/>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A473" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B473" s="20"/>
-      <c r="C473" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D473" s="39"/>
+      <c r="K472" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="40"/>
+      <c r="B473" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C473" s="13"/>
+      <c r="D473" s="39">
+        <v>1</v>
+      </c>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G473" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H473" s="39"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A474" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="B474" s="20"/>
+      <c r="K473" s="49">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="40"/>
+      <c r="B474" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C474" s="13"/>
       <c r="D474" s="39"/>
       <c r="E474" s="9"/>
@@ -12721,93 +12737,107 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H474" s="39"/>
+      <c r="H474" s="39">
+        <v>2</v>
+      </c>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="20"/>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A475" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B475" s="20"/>
-      <c r="C475" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K474" s="49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="40"/>
+      <c r="B475" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C475" s="13"/>
       <c r="D475" s="39"/>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H475" s="39"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="39">
+        <v>2</v>
+      </c>
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
-      <c r="K475" s="20"/>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K475" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B476" s="20"/>
-      <c r="C476" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45291</v>
+      </c>
+      <c r="B476" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C476" s="13"/>
       <c r="D476" s="39"/>
       <c r="E476" s="9"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H476" s="39"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="39">
+        <v>1</v>
+      </c>
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
-      <c r="K476" s="20"/>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A477" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B477" s="20"/>
-      <c r="C477" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K476" s="49">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="40"/>
+      <c r="B477" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C477" s="13"/>
       <c r="D477" s="39"/>
       <c r="E477" s="9"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="20"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A478" s="40">
-        <v>45412</v>
-      </c>
-      <c r="B478" s="20"/>
-      <c r="C478" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K477" s="49">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="40"/>
+      <c r="B478" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C478" s="13"/>
       <c r="D478" s="39"/>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
-      <c r="G478" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H478" s="39"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="39">
+        <v>1</v>
+      </c>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A479" s="40"/>
+      <c r="K478" s="49">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="48" t="s">
+        <v>330</v>
+      </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
       <c r="D479" s="39"/>
@@ -12822,8 +12852,10 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A480" s="40"/>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="40">
+        <v>45322</v>
+      </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
       <c r="D480" s="39"/>
@@ -12838,8 +12870,10 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A481" s="40"/>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="40">
+        <v>45351</v>
+      </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
       <c r="D481" s="39"/>
@@ -12854,8 +12888,10 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A482" s="40"/>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="40">
+        <v>45382</v>
+      </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
       <c r="D482" s="39"/>
@@ -12870,8 +12906,10 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A483" s="40"/>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="40">
+        <v>45412</v>
+      </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
       <c r="D483" s="39"/>
@@ -12886,7 +12924,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12902,7 +12940,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12918,7 +12956,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12934,7 +12972,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12950,7 +12988,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12966,7 +13004,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12982,7 +13020,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12998,7 +13036,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -13014,7 +13052,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -13030,7 +13068,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -13046,7 +13084,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13062,7 +13100,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13078,7 +13116,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13094,7 +13132,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13110,7 +13148,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13126,7 +13164,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -13142,7 +13180,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -13158,7 +13196,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -13174,7 +13212,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13190,7 +13228,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13206,7 +13244,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13222,7 +13260,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13238,7 +13276,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -13254,7 +13292,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -13270,7 +13308,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -13286,7 +13324,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -13302,7 +13340,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -13318,21 +13356,101 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A511" s="41"/>
-      <c r="B511" s="15"/>
-      <c r="C511" s="42"/>
-      <c r="D511" s="43"/>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" s="40"/>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="39"/>
       <c r="E511" s="9"/>
-      <c r="F511" s="15"/>
-      <c r="G511" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H511" s="43"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H511" s="39"/>
       <c r="I511" s="9"/>
-      <c r="J511" s="12"/>
-      <c r="K511" s="15"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="40"/>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="39"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="40"/>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="39"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="40"/>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="39"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="39"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="40"/>
+      <c r="B515" s="20"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="39"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="39"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="20"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="41"/>
+      <c r="B516" s="15"/>
+      <c r="C516" s="42"/>
+      <c r="D516" s="43"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="15"/>
+      <c r="G516" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="43"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="12"/>
+      <c r="K516" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13349,10 +13467,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13375,28 +13493,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -13409,7 +13527,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13438,7 +13556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13464,17 +13582,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>324</v>
       </c>
@@ -13498,10 +13616,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>336.05199999999996</v>
+        <v>314.55199999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13529,7 +13647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13555,7 +13673,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13581,7 +13699,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13607,7 +13725,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13633,7 +13751,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13659,7 +13777,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13685,7 +13803,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13711,7 +13829,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13731,7 +13849,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13751,7 +13869,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13771,7 +13889,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13792,7 +13910,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13813,7 +13931,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13834,7 +13952,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13855,7 +13973,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13876,7 +13994,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13897,7 +14015,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13918,7 +14036,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13939,7 +14057,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13960,7 +14078,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13981,7 +14099,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14002,7 +14120,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14023,7 +14141,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14044,7 +14162,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14065,7 +14183,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14086,7 +14204,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14107,7 +14225,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14128,7 +14246,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14149,7 +14267,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14170,7 +14288,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14191,7 +14309,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14200,7 +14318,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14209,7 +14327,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14218,7 +14336,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14227,7 +14345,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14236,7 +14354,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14245,7 +14363,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14254,7 +14372,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14263,7 +14381,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14272,7 +14390,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14281,7 +14399,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14290,7 +14408,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14299,7 +14417,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14308,7 +14426,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14317,7 +14435,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14326,7 +14444,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14335,7 +14453,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14344,7 +14462,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14353,7 +14471,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14362,7 +14480,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14371,7 +14489,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14380,7 +14498,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14389,7 +14507,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14398,7 +14516,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14407,7 +14525,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14416,7 +14534,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14425,7 +14543,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14434,7 +14552,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14443,7 +14561,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14452,7 +14570,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
